--- a/IsraelCOVID19.xlsx
+++ b/IsraelCOVID19.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idandardikman/projects/israel-covid19-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{46AF9B83-9172-854D-BC92-AC1BE163D613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18196382-2C12-6241-91CF-4EF6E0C79A20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540"/>
+    <workbookView xWindow="54400" yWindow="-9120" windowWidth="25600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IsraelCOVID19" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -910,12 +910,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M72" sqref="M72"/>
+      <selection pane="bottomLeft" activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3353,18 +3353,18 @@
         <v>469</v>
       </c>
       <c r="I68">
-        <v>11017</v>
+        <v>11019</v>
       </c>
       <c r="J68">
         <v>344381</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="0"/>
-        <v>1.0529182173005356</v>
+        <v>1.0527271077230238</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="1"/>
-        <v>0.99056206065373709</v>
+        <v>0.99038226901009352</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -3378,13 +3378,13 @@
         <v>15767</v>
       </c>
       <c r="C69">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D69">
         <v>83</v>
       </c>
       <c r="E69">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F69">
         <v>210</v>
@@ -3396,18 +3396,18 @@
         <v>371</v>
       </c>
       <c r="I69">
-        <v>10648</v>
+        <v>10640</v>
       </c>
       <c r="J69">
         <v>354857</v>
       </c>
       <c r="K69" s="2">
         <f>100*C69/I69</f>
-        <v>1.6059353869271225</v>
+        <v>1.5695488721804511</v>
       </c>
       <c r="L69" s="2">
         <f>K69/K68</f>
-        <v>1.5252232894634574</v>
+        <v>1.4909361226341717</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -3421,13 +3421,13 @@
         <v>15851</v>
       </c>
       <c r="C70">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D70">
         <v>80</v>
       </c>
       <c r="E70">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F70">
         <v>216</v>
@@ -3439,18 +3439,18 @@
         <v>255</v>
       </c>
       <c r="I70">
-        <v>9006</v>
+        <v>9004</v>
       </c>
       <c r="J70">
         <v>365961</v>
       </c>
       <c r="K70" s="2">
         <f>100*C70/I70</f>
-        <v>0.94381523428825231</v>
+        <v>0.92181252776543754</v>
       </c>
       <c r="L70" s="2">
-        <f t="shared" ref="L70:L72" si="2">K70/K69</f>
-        <v>0.58770436343282517</v>
+        <f t="shared" ref="L70:L74" si="2">K70/K69</f>
+        <v>0.58731049673199132</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -3464,13 +3464,13 @@
         <v>15995</v>
       </c>
       <c r="C71">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D71">
         <v>79</v>
       </c>
       <c r="E71">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F71">
         <v>222</v>
@@ -3482,18 +3482,18 @@
         <v>411</v>
       </c>
       <c r="I71">
-        <v>9824</v>
+        <v>9834</v>
       </c>
       <c r="J71">
         <v>373882</v>
       </c>
       <c r="K71" s="2">
         <f>100*C71/I71</f>
-        <v>1.638843648208469</v>
+        <v>1.5151515151515151</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="2"/>
-        <v>1.7364030465606437</v>
+        <v>1.6436655713764148</v>
       </c>
       <c r="M71">
         <v>1</v>
@@ -3513,10 +3513,10 @@
         <v>82</v>
       </c>
       <c r="E72">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F72">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G72">
         <v>8758</v>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="L72" s="2">
         <f t="shared" si="2"/>
-        <v>0.65751616262733203</v>
+        <v>0.71119368323269849</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -3547,16 +3547,19 @@
         <v>43953</v>
       </c>
       <c r="B73">
-        <v>16172</v>
+        <v>16170</v>
+      </c>
+      <c r="C73">
+        <v>57</v>
       </c>
       <c r="D73">
         <v>67</v>
       </c>
       <c r="E73">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F73">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G73">
         <v>9526</v>
@@ -3564,8 +3567,92 @@
       <c r="H73">
         <v>260</v>
       </c>
+      <c r="I73">
+        <v>5555</v>
+      </c>
       <c r="J73">
         <v>392660</v>
+      </c>
+      <c r="K73" s="2">
+        <f>100*C73/I73</f>
+        <v>1.026102610261026</v>
+      </c>
+      <c r="L73" s="2">
+        <f t="shared" si="2"/>
+        <v>0.95224091374654707</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B74">
+        <f>B73+C74</f>
+        <v>16198</v>
+      </c>
+      <c r="C74">
+        <v>28</v>
+      </c>
+      <c r="D74">
+        <v>65</v>
+      </c>
+      <c r="E74">
+        <v>94</v>
+      </c>
+      <c r="F74">
+        <v>232</v>
+      </c>
+      <c r="G74">
+        <v>9740</v>
+      </c>
+      <c r="H74">
+        <v>116</v>
+      </c>
+      <c r="I74">
+        <v>6710</v>
+      </c>
+      <c r="J74">
+        <v>401317</v>
+      </c>
+      <c r="K74" s="2">
+        <f>100*C74/I74</f>
+        <v>0.41728763040238448</v>
+      </c>
+      <c r="L74" s="2">
+        <f t="shared" si="2"/>
+        <v>0.40667241875179755</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B75">
+        <v>16207</v>
+      </c>
+      <c r="D75">
+        <v>64</v>
+      </c>
+      <c r="E75">
+        <v>92</v>
+      </c>
+      <c r="F75">
+        <v>234</v>
+      </c>
+      <c r="G75">
+        <v>9793</v>
+      </c>
+      <c r="J75">
+        <v>403408</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/IsraelCOVID19.xlsx
+++ b/IsraelCOVID19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idandardikman/projects/israel-covid19-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18196382-2C12-6241-91CF-4EF6E0C79A20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C31ABB-6D68-3F42-B947-CF20564CC891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="54400" yWindow="-9120" windowWidth="25600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,11 +911,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L79" sqref="L79"/>
+      <selection pane="bottomLeft" activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3402,7 +3402,7 @@
         <v>354857</v>
       </c>
       <c r="K69" s="2">
-        <f>100*C69/I69</f>
+        <f t="shared" ref="K69:K75" si="2">100*C69/I69</f>
         <v>1.5695488721804511</v>
       </c>
       <c r="L69" s="2">
@@ -3433,7 +3433,7 @@
         <v>216</v>
       </c>
       <c r="G70">
-        <v>8001</v>
+        <v>7929</v>
       </c>
       <c r="H70">
         <v>255</v>
@@ -3445,11 +3445,11 @@
         <v>365961</v>
       </c>
       <c r="K70" s="2">
-        <f>100*C70/I70</f>
+        <f t="shared" si="2"/>
         <v>0.92181252776543754</v>
       </c>
       <c r="L70" s="2">
-        <f t="shared" ref="L70:L74" si="2">K70/K69</f>
+        <f t="shared" ref="L70:L75" si="3">K70/K69</f>
         <v>0.58731049673199132</v>
       </c>
       <c r="M70">
@@ -3461,7 +3461,7 @@
         <v>43951</v>
       </c>
       <c r="B71">
-        <v>15995</v>
+        <v>15870</v>
       </c>
       <c r="C71">
         <v>149</v>
@@ -3479,21 +3479,22 @@
         <v>8412</v>
       </c>
       <c r="H71">
-        <v>411</v>
+        <f>G71-G70</f>
+        <v>483</v>
       </c>
       <c r="I71">
-        <v>9834</v>
+        <v>9924</v>
       </c>
       <c r="J71">
         <v>373882</v>
       </c>
       <c r="K71" s="2">
-        <f>100*C71/I71</f>
-        <v>1.5151515151515151</v>
+        <f t="shared" si="2"/>
+        <v>1.5014107214832728</v>
       </c>
       <c r="L71" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6436655713764148</v>
+        <f t="shared" si="3"/>
+        <v>1.6287592935223361</v>
       </c>
       <c r="M71">
         <v>1</v>
@@ -3522,21 +3523,22 @@
         <v>8758</v>
       </c>
       <c r="H72">
+        <f t="shared" ref="H72:H76" si="4">G72-G71</f>
         <v>346</v>
       </c>
       <c r="I72">
-        <v>10765</v>
+        <v>11039</v>
       </c>
       <c r="J72">
         <v>385922</v>
       </c>
       <c r="K72" s="2">
-        <f>100*C72/I72</f>
-        <v>1.0775661867162099</v>
+        <f t="shared" si="2"/>
+        <v>1.0508198206359272</v>
       </c>
       <c r="L72" s="2">
-        <f t="shared" si="2"/>
-        <v>0.71119368323269849</v>
+        <f t="shared" si="3"/>
+        <v>0.69988831543563368</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -3547,7 +3549,7 @@
         <v>43953</v>
       </c>
       <c r="B73">
-        <v>16170</v>
+        <v>16152</v>
       </c>
       <c r="C73">
         <v>57</v>
@@ -3562,24 +3564,25 @@
         <v>229</v>
       </c>
       <c r="G73">
-        <v>9526</v>
+        <v>9400</v>
       </c>
       <c r="H73">
-        <v>260</v>
+        <f t="shared" si="4"/>
+        <v>642</v>
       </c>
       <c r="I73">
-        <v>5555</v>
+        <v>5554</v>
       </c>
       <c r="J73">
         <v>392660</v>
       </c>
       <c r="K73" s="2">
-        <f>100*C73/I73</f>
-        <v>1.026102610261026</v>
+        <f t="shared" si="2"/>
+        <v>1.0262873604609291</v>
       </c>
       <c r="L73" s="2">
-        <f t="shared" si="2"/>
-        <v>0.95224091374654707</v>
+        <f t="shared" si="3"/>
+        <v>0.97665398035587891</v>
       </c>
       <c r="M73">
         <v>1</v>
@@ -3590,11 +3593,10 @@
         <v>43954</v>
       </c>
       <c r="B74">
-        <f>B73+C74</f>
-        <v>16198</v>
+        <v>16193</v>
       </c>
       <c r="C74">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D74">
         <v>65</v>
@@ -3606,24 +3608,25 @@
         <v>232</v>
       </c>
       <c r="G74">
-        <v>9740</v>
+        <v>9634</v>
       </c>
       <c r="H74">
-        <v>116</v>
+        <f t="shared" si="4"/>
+        <v>234</v>
       </c>
       <c r="I74">
-        <v>6710</v>
+        <v>8018</v>
       </c>
       <c r="J74">
         <v>401317</v>
       </c>
       <c r="K74" s="2">
-        <f>100*C74/I74</f>
-        <v>0.41728763040238448</v>
+        <f t="shared" si="2"/>
+        <v>0.37415814417560489</v>
       </c>
       <c r="L74" s="2">
-        <f t="shared" si="2"/>
-        <v>0.40667241875179755</v>
+        <f t="shared" si="3"/>
+        <v>0.36457444434233499</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -3634,24 +3637,75 @@
         <v>43955</v>
       </c>
       <c r="B75">
-        <v>16207</v>
+        <v>16211</v>
+      </c>
+      <c r="C75">
+        <v>56</v>
       </c>
       <c r="D75">
         <v>64</v>
       </c>
       <c r="E75">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F75">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G75">
-        <v>9793</v>
+        <v>9787</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="4"/>
+        <v>153</v>
+      </c>
+      <c r="I75">
+        <v>8310</v>
       </c>
       <c r="J75">
-        <v>403408</v>
+        <v>410904</v>
+      </c>
+      <c r="K75" s="2">
+        <f t="shared" si="2"/>
+        <v>0.67388688327316482</v>
+      </c>
+      <c r="L75" s="2">
+        <f t="shared" si="3"/>
+        <v>1.8010750100280786</v>
       </c>
       <c r="M75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B76">
+        <v>16261</v>
+      </c>
+      <c r="C76">
+        <v>50</v>
+      </c>
+      <c r="D76">
+        <v>59</v>
+      </c>
+      <c r="E76">
+        <v>87</v>
+      </c>
+      <c r="F76">
+        <v>237</v>
+      </c>
+      <c r="G76">
+        <v>10181</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="4"/>
+        <v>394</v>
+      </c>
+      <c r="J76">
+        <v>413517</v>
+      </c>
+      <c r="M76">
         <v>1</v>
       </c>
     </row>

--- a/IsraelCOVID19.xlsx
+++ b/IsraelCOVID19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idandardikman/projects/israel-covid19-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\GitHub\israel-covid19-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C31ABB-6D68-3F42-B947-CF20564CC891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38A8118-4562-4411-8B98-5189A465BFB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54400" yWindow="-9120" windowWidth="25600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IsraelCOVID19" sheetId="1" r:id="rId1"/>
@@ -79,21 +79,21 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -101,7 +101,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -109,7 +109,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -117,35 +117,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -153,7 +153,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -161,14 +161,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -176,14 +176,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -191,7 +191,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -199,14 +199,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -911,14 +911,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M76" sqref="M76"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3402,7 +3402,7 @@
         <v>354857</v>
       </c>
       <c r="K69" s="2">
-        <f t="shared" ref="K69:K75" si="2">100*C69/I69</f>
+        <f t="shared" ref="K69:K77" si="2">100*C69/I69</f>
         <v>1.5695488721804511</v>
       </c>
       <c r="L69" s="2">
@@ -3449,7 +3449,7 @@
         <v>0.92181252776543754</v>
       </c>
       <c r="L70" s="2">
-        <f t="shared" ref="L70:L75" si="3">K70/K69</f>
+        <f t="shared" ref="L70:L77" si="3">K70/K69</f>
         <v>0.58731049673199132</v>
       </c>
       <c r="M70">
@@ -3517,7 +3517,7 @@
         <v>103</v>
       </c>
       <c r="F72">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G72">
         <v>8758</v>
@@ -3527,18 +3527,18 @@
         <v>346</v>
       </c>
       <c r="I72">
-        <v>11039</v>
+        <v>11050</v>
       </c>
       <c r="J72">
         <v>385922</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="2"/>
-        <v>1.0508198206359272</v>
+        <v>1.0497737556561086</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="3"/>
-        <v>0.69988831543563368</v>
+        <v>0.69919159403565256</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -3571,18 +3571,19 @@
         <v>642</v>
       </c>
       <c r="I73">
-        <v>5554</v>
+        <v>5569</v>
       </c>
       <c r="J73">
-        <v>392660</v>
+        <f>J72+I73</f>
+        <v>391491</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="2"/>
-        <v>1.0262873604609291</v>
+        <v>1.0235230741605315</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="3"/>
-        <v>0.97665398035587891</v>
+        <v>0.97499396288567863</v>
       </c>
       <c r="M73">
         <v>1</v>
@@ -3593,10 +3594,10 @@
         <v>43954</v>
       </c>
       <c r="B74">
-        <v>16193</v>
+        <v>16184</v>
       </c>
       <c r="C74">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D74">
         <v>65</v>
@@ -3615,18 +3616,19 @@
         <v>234</v>
       </c>
       <c r="I74">
-        <v>8018</v>
+        <v>8028</v>
       </c>
       <c r="J74">
-        <v>401317</v>
+        <f t="shared" ref="J74:J77" si="5">J73+I74</f>
+        <v>399519</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="2"/>
-        <v>0.37415814417560489</v>
+        <v>0.36123567513702043</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="3"/>
-        <v>0.36457444434233499</v>
+        <v>0.35293359207685382</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -3637,10 +3639,11 @@
         <v>43955</v>
       </c>
       <c r="B75">
-        <v>16211</v>
+        <f>B74+C75</f>
+        <v>16239</v>
       </c>
       <c r="C75">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D75">
         <v>64</v>
@@ -3659,18 +3662,19 @@
         <v>153</v>
       </c>
       <c r="I75">
-        <v>8310</v>
+        <v>9216</v>
       </c>
       <c r="J75">
-        <v>410904</v>
+        <f t="shared" si="5"/>
+        <v>408735</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="2"/>
-        <v>0.67388688327316482</v>
+        <v>0.59678819444444442</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="3"/>
-        <v>1.8010750100280786</v>
+        <v>1.6520743534482758</v>
       </c>
       <c r="M75">
         <v>1</v>
@@ -3681,10 +3685,11 @@
         <v>43956</v>
       </c>
       <c r="B76">
-        <v>16261</v>
+        <f t="shared" ref="B76:B77" si="6">B75+C76</f>
+        <v>16273</v>
       </c>
       <c r="C76">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D76">
         <v>59</v>
@@ -3693,7 +3698,7 @@
         <v>87</v>
       </c>
       <c r="F76">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G76">
         <v>10181</v>
@@ -3702,11 +3707,94 @@
         <f t="shared" si="4"/>
         <v>394</v>
       </c>
+      <c r="I76">
+        <v>8953</v>
+      </c>
       <c r="J76">
-        <v>413517</v>
+        <f t="shared" si="5"/>
+        <v>417688</v>
+      </c>
+      <c r="K76" s="2">
+        <f t="shared" si="2"/>
+        <v>0.37976097397520386</v>
+      </c>
+      <c r="L76" s="2">
+        <f t="shared" si="3"/>
+        <v>0.63634129748281432</v>
       </c>
       <c r="M76">
         <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="6"/>
+        <v>16337</v>
+      </c>
+      <c r="C77">
+        <v>64</v>
+      </c>
+      <c r="D77">
+        <v>60</v>
+      </c>
+      <c r="E77">
+        <v>85</v>
+      </c>
+      <c r="F77">
+        <v>239</v>
+      </c>
+      <c r="G77">
+        <v>10673</v>
+      </c>
+      <c r="H77">
+        <f>G77-G76</f>
+        <v>492</v>
+      </c>
+      <c r="I77">
+        <v>7832</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="5"/>
+        <v>425520</v>
+      </c>
+      <c r="K77" s="2">
+        <f t="shared" si="2"/>
+        <v>0.81716036772216549</v>
+      </c>
+      <c r="L77" s="2">
+        <f t="shared" si="3"/>
+        <v>2.151775521240161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B78">
+        <f>B77+C78</f>
+        <v>16374</v>
+      </c>
+      <c r="C78">
+        <v>37</v>
+      </c>
+      <c r="D78">
+        <v>62</v>
+      </c>
+      <c r="E78">
+        <v>83</v>
+      </c>
+      <c r="F78">
+        <v>239</v>
+      </c>
+      <c r="G78">
+        <v>10945</v>
+      </c>
+      <c r="H78">
+        <f>G78-G77</f>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/IsraelCOVID19.xlsx
+++ b/IsraelCOVID19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\GitHub\israel-covid19-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38A8118-4562-4411-8B98-5189A465BFB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DF7053-AD60-4F93-9502-701109409D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,11 +911,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M80" sqref="M80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3619,7 +3619,7 @@
         <v>8028</v>
       </c>
       <c r="J74">
-        <f t="shared" ref="J74:J77" si="5">J73+I74</f>
+        <f t="shared" ref="J74:J78" si="5">J73+I74</f>
         <v>399519</v>
       </c>
       <c r="K74" s="2">
@@ -3662,19 +3662,19 @@
         <v>153</v>
       </c>
       <c r="I75">
-        <v>9216</v>
+        <v>9261</v>
       </c>
       <c r="J75">
         <f t="shared" si="5"/>
-        <v>408735</v>
+        <v>408780</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="2"/>
-        <v>0.59678819444444442</v>
+        <v>0.59388834899038978</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="3"/>
-        <v>1.6520743534482758</v>
+        <v>1.644046781274086</v>
       </c>
       <c r="M75">
         <v>1</v>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="J76">
         <f t="shared" si="5"/>
-        <v>417688</v>
+        <v>417733</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="2"/>
@@ -3720,7 +3720,7 @@
       </c>
       <c r="L76" s="2">
         <f t="shared" si="3"/>
-        <v>0.63634129748281432</v>
+        <v>0.63944843272442964</v>
       </c>
       <c r="M76">
         <v>1</v>
@@ -3731,11 +3731,11 @@
         <v>43957</v>
       </c>
       <c r="B77">
-        <f t="shared" si="6"/>
-        <v>16337</v>
+        <v>16339</v>
       </c>
       <c r="C77">
-        <v>64</v>
+        <f>B77-B76</f>
+        <v>66</v>
       </c>
       <c r="D77">
         <v>60</v>
@@ -3754,19 +3754,22 @@
         <v>492</v>
       </c>
       <c r="I77">
-        <v>7832</v>
+        <v>9181</v>
       </c>
       <c r="J77">
         <f t="shared" si="5"/>
-        <v>425520</v>
+        <v>426914</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="2"/>
-        <v>0.81716036772216549</v>
+        <v>0.71887593944014816</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="3"/>
-        <v>2.151775521240161</v>
+        <v>1.8929694958257783</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -3774,11 +3777,10 @@
         <v>43958</v>
       </c>
       <c r="B78">
-        <f>B77+C78</f>
-        <v>16374</v>
+        <v>16403</v>
       </c>
       <c r="C78">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D78">
         <v>62</v>
@@ -3787,14 +3789,56 @@
         <v>83</v>
       </c>
       <c r="F78">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G78">
-        <v>10945</v>
+        <v>10905</v>
       </c>
       <c r="H78">
         <f>G78-G77</f>
-        <v>272</v>
+        <v>232</v>
+      </c>
+      <c r="I78">
+        <v>8876</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="5"/>
+        <v>435790</v>
+      </c>
+      <c r="K78" s="2">
+        <f t="shared" ref="K78" si="7">100*C78/I78</f>
+        <v>0.72104551599819744</v>
+      </c>
+      <c r="L78" s="2">
+        <f t="shared" ref="L78" si="8">K78/K77</f>
+        <v>1.0030180124817349</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B79">
+        <v>16409</v>
+      </c>
+      <c r="D79">
+        <v>58</v>
+      </c>
+      <c r="E79">
+        <v>81</v>
+      </c>
+      <c r="F79">
+        <v>245</v>
+      </c>
+      <c r="G79">
+        <v>11007</v>
+      </c>
+      <c r="H79">
+        <f>G79-G78</f>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/IsraelCOVID19.xlsx
+++ b/IsraelCOVID19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\GitHub\israel-covid19-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DF7053-AD60-4F93-9502-701109409D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30916AD2-748E-4284-B2EF-81BCD126BA0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,11 +911,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M80" sqref="M80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3594,7 +3594,8 @@
         <v>43954</v>
       </c>
       <c r="B74">
-        <v>16184</v>
+        <f>B75-C74</f>
+        <v>16189</v>
       </c>
       <c r="C74">
         <v>29</v>
@@ -3619,7 +3620,7 @@
         <v>8028</v>
       </c>
       <c r="J74">
-        <f t="shared" ref="J74:J78" si="5">J73+I74</f>
+        <f t="shared" ref="J74:J82" si="5">J73+I74</f>
         <v>399519</v>
       </c>
       <c r="K74" s="2">
@@ -3639,8 +3640,7 @@
         <v>43955</v>
       </c>
       <c r="B75">
-        <f>B74+C75</f>
-        <v>16239</v>
+        <v>16218</v>
       </c>
       <c r="C75">
         <v>55</v>
@@ -3685,11 +3685,12 @@
         <v>43956</v>
       </c>
       <c r="B76">
-        <f t="shared" ref="B76:B77" si="6">B75+C76</f>
-        <v>16273</v>
+        <f>B77-C77</f>
+        <v>16258</v>
       </c>
       <c r="C76">
-        <v>34</v>
+        <f>B76-B75</f>
+        <v>40</v>
       </c>
       <c r="D76">
         <v>59</v>
@@ -3716,11 +3717,11 @@
       </c>
       <c r="K76" s="2">
         <f t="shared" si="2"/>
-        <v>0.37976097397520386</v>
+        <v>0.44677761644141628</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="3"/>
-        <v>0.63944843272442964</v>
+        <v>0.75229227379344665</v>
       </c>
       <c r="M76">
         <v>1</v>
@@ -3731,10 +3732,9 @@
         <v>43957</v>
       </c>
       <c r="B77">
-        <v>16339</v>
+        <v>16324</v>
       </c>
       <c r="C77">
-        <f>B77-B76</f>
         <v>66</v>
       </c>
       <c r="D77">
@@ -3754,19 +3754,19 @@
         <v>492</v>
       </c>
       <c r="I77">
-        <v>9181</v>
+        <v>9456</v>
       </c>
       <c r="J77">
         <f t="shared" si="5"/>
-        <v>426914</v>
+        <v>427189</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="2"/>
-        <v>0.71887593944014816</v>
+        <v>0.69796954314720816</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="3"/>
-        <v>1.8929694958257783</v>
+        <v>1.5622303299492386</v>
       </c>
       <c r="M77">
         <v>1</v>
@@ -3777,16 +3777,18 @@
         <v>43958</v>
       </c>
       <c r="B78">
-        <v>16403</v>
+        <f>B79-C79</f>
+        <v>16387</v>
       </c>
       <c r="C78">
-        <v>64</v>
+        <f>B78-B77</f>
+        <v>63</v>
       </c>
       <c r="D78">
         <v>62</v>
       </c>
       <c r="E78">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F78">
         <v>240</v>
@@ -3799,19 +3801,19 @@
         <v>232</v>
       </c>
       <c r="I78">
-        <v>8876</v>
+        <v>10116</v>
       </c>
       <c r="J78">
         <f t="shared" si="5"/>
-        <v>435790</v>
+        <v>437305</v>
       </c>
       <c r="K78" s="2">
-        <f t="shared" ref="K78" si="7">100*C78/I78</f>
-        <v>0.72104551599819744</v>
+        <f t="shared" ref="K78" si="6">100*C78/I78</f>
+        <v>0.62277580071174377</v>
       </c>
       <c r="L78" s="2">
-        <f t="shared" ref="L78" si="8">K78/K77</f>
-        <v>1.0030180124817349</v>
+        <f t="shared" ref="L78" si="7">K78/K77</f>
+        <v>0.89226787447428013</v>
       </c>
       <c r="M78">
         <v>1</v>
@@ -3822,23 +3824,210 @@
         <v>43959</v>
       </c>
       <c r="B79">
-        <v>16409</v>
+        <v>16422</v>
+      </c>
+      <c r="C79">
+        <v>35</v>
       </c>
       <c r="D79">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E79">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F79">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G79">
-        <v>11007</v>
+        <v>11143</v>
       </c>
       <c r="H79">
         <f>G79-G78</f>
-        <v>102</v>
+        <v>238</v>
+      </c>
+      <c r="I79">
+        <v>8163</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="5"/>
+        <v>445468</v>
+      </c>
+      <c r="K79" s="2">
+        <f t="shared" ref="K79:K82" si="8">100*C79/I79</f>
+        <v>0.42876393482788189</v>
+      </c>
+      <c r="L79" s="2">
+        <f t="shared" ref="L79:L82" si="9">K79/K78</f>
+        <v>0.68847237535219896</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B80">
+        <f>B81-C81</f>
+        <v>16441</v>
+      </c>
+      <c r="C80">
+        <f>B80-B79</f>
+        <v>19</v>
+      </c>
+      <c r="D80">
+        <v>50</v>
+      </c>
+      <c r="E80">
+        <v>79</v>
+      </c>
+      <c r="F80">
+        <v>248</v>
+      </c>
+      <c r="G80">
+        <v>11376</v>
+      </c>
+      <c r="H80">
+        <f t="shared" ref="H80:H83" si="10">G80-G79</f>
+        <v>233</v>
+      </c>
+      <c r="I80">
+        <v>3882</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="5"/>
+        <v>449350</v>
+      </c>
+      <c r="K80" s="2">
+        <f t="shared" si="8"/>
+        <v>0.48943843379701185</v>
+      </c>
+      <c r="L80" s="2">
+        <f t="shared" si="9"/>
+        <v>1.1415102671671451</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B81">
+        <v>16471</v>
+      </c>
+      <c r="C81">
+        <v>30</v>
+      </c>
+      <c r="D81">
+        <v>47</v>
+      </c>
+      <c r="E81">
+        <v>74</v>
+      </c>
+      <c r="F81">
+        <v>253</v>
+      </c>
+      <c r="G81">
+        <v>11430</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="10"/>
+        <v>54</v>
+      </c>
+      <c r="I81">
+        <v>4939</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="5"/>
+        <v>454289</v>
+      </c>
+      <c r="K81" s="2">
+        <f t="shared" si="8"/>
+        <v>0.60741040696497262</v>
+      </c>
+      <c r="L81" s="2">
+        <f t="shared" si="9"/>
+        <v>1.241035368335802</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B82">
+        <f>B83-C83</f>
+        <v>16513</v>
+      </c>
+      <c r="C82">
+        <f>B82-B81</f>
+        <v>42</v>
+      </c>
+      <c r="D82">
+        <v>51</v>
+      </c>
+      <c r="E82">
+        <v>65</v>
+      </c>
+      <c r="F82">
+        <v>258</v>
+      </c>
+      <c r="G82">
+        <v>11794</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="10"/>
+        <v>364</v>
+      </c>
+      <c r="I82">
+        <v>8291</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="5"/>
+        <v>462580</v>
+      </c>
+      <c r="K82" s="2">
+        <f t="shared" si="8"/>
+        <v>0.50657339283560487</v>
+      </c>
+      <c r="L82" s="2">
+        <f t="shared" si="9"/>
+        <v>0.83398866240501757</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B83">
+        <v>16526</v>
+      </c>
+      <c r="C83">
+        <v>13</v>
+      </c>
+      <c r="D83">
+        <v>50</v>
+      </c>
+      <c r="E83">
+        <v>67</v>
+      </c>
+      <c r="F83">
+        <v>258</v>
+      </c>
+      <c r="G83">
+        <v>11956</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="10"/>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/IsraelCOVID19.xlsx
+++ b/IsraelCOVID19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\GitHub\israel-covid19-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30916AD2-748E-4284-B2EF-81BCD126BA0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC87AB5-4F8F-4A71-8D9F-82BCC74E8DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,11 +911,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3620,7 +3620,7 @@
         <v>8028</v>
       </c>
       <c r="J74">
-        <f t="shared" ref="J74:J82" si="5">J73+I74</f>
+        <f t="shared" ref="J74:J84" si="5">J73+I74</f>
         <v>399519</v>
       </c>
       <c r="K74" s="2">
@@ -3846,19 +3846,19 @@
         <v>238</v>
       </c>
       <c r="I79">
-        <v>8163</v>
+        <v>8169</v>
       </c>
       <c r="J79">
         <f t="shared" si="5"/>
-        <v>445468</v>
+        <v>445474</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" ref="K79:K82" si="8">100*C79/I79</f>
-        <v>0.42876393482788189</v>
+        <v>0.42844901456726647</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" ref="L79:L82" si="9">K79/K78</f>
-        <v>0.68847237535219896</v>
+        <v>0.68796670339086785</v>
       </c>
       <c r="M79">
         <v>1</v>
@@ -3889,23 +3889,23 @@
         <v>11376</v>
       </c>
       <c r="H80">
-        <f t="shared" ref="H80:H83" si="10">G80-G79</f>
+        <f t="shared" ref="H80:H85" si="10">G80-G79</f>
         <v>233</v>
       </c>
       <c r="I80">
-        <v>3882</v>
+        <v>3884</v>
       </c>
       <c r="J80">
         <f t="shared" si="5"/>
-        <v>449350</v>
+        <v>449358</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="8"/>
-        <v>0.48943843379701185</v>
+        <v>0.48918640576725025</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="9"/>
-        <v>1.1415102671671451</v>
+        <v>1.1417610710607622</v>
       </c>
       <c r="M80">
         <v>1</v>
@@ -3938,19 +3938,19 @@
         <v>54</v>
       </c>
       <c r="I81">
-        <v>4939</v>
+        <v>4943</v>
       </c>
       <c r="J81">
         <f t="shared" si="5"/>
-        <v>454289</v>
+        <v>454301</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="8"/>
-        <v>0.60741040696497262</v>
+        <v>0.60691887517701804</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="9"/>
-        <v>1.241035368335802</v>
+        <v>1.240669953256599</v>
       </c>
       <c r="M81">
         <v>1</v>
@@ -3962,11 +3962,11 @@
       </c>
       <c r="B82">
         <f>B83-C83</f>
-        <v>16513</v>
+        <v>16500</v>
       </c>
       <c r="C82">
         <f>B82-B81</f>
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D82">
         <v>51</v>
@@ -3985,19 +3985,19 @@
         <v>364</v>
       </c>
       <c r="I82">
-        <v>8291</v>
+        <v>9147</v>
       </c>
       <c r="J82">
         <f t="shared" si="5"/>
-        <v>462580</v>
+        <v>463448</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="8"/>
-        <v>0.50657339283560487</v>
+        <v>0.31704383951022191</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="9"/>
-        <v>0.83398866240501757</v>
+        <v>0.52238256623300894</v>
       </c>
       <c r="M82">
         <v>1</v>
@@ -4011,23 +4011,115 @@
         <v>16526</v>
       </c>
       <c r="C83">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D83">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E83">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F83">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G83">
-        <v>11956</v>
+        <v>12101</v>
       </c>
       <c r="H83">
         <f t="shared" si="10"/>
-        <v>162</v>
+        <v>307</v>
+      </c>
+      <c r="I83">
+        <v>7528</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="5"/>
+        <v>470976</v>
+      </c>
+      <c r="K83" s="2">
+        <f t="shared" ref="K83:K84" si="11">100*C83/I83</f>
+        <v>0.34537725823591925</v>
+      </c>
+      <c r="L83" s="2">
+        <f t="shared" ref="L83:L84" si="12">K83/K82</f>
+        <v>1.0893675107186047</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B84">
+        <f>B83+C84</f>
+        <v>16563</v>
+      </c>
+      <c r="C84">
+        <v>37</v>
+      </c>
+      <c r="D84">
+        <v>50</v>
+      </c>
+      <c r="E84">
+        <v>60</v>
+      </c>
+      <c r="F84">
+        <v>264</v>
+      </c>
+      <c r="G84">
+        <v>12224</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="10"/>
+        <v>123</v>
+      </c>
+      <c r="I84">
+        <v>7130</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="5"/>
+        <v>478106</v>
+      </c>
+      <c r="K84" s="2">
+        <f t="shared" si="11"/>
+        <v>0.5189340813464236</v>
+      </c>
+      <c r="L84" s="2">
+        <f t="shared" si="12"/>
+        <v>1.5025137555291834</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B85">
+        <f>B84+C85</f>
+        <v>16568</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>43</v>
+      </c>
+      <c r="E85">
+        <v>62</v>
+      </c>
+      <c r="F85">
+        <v>264</v>
+      </c>
+      <c r="G85">
+        <v>12329</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="10"/>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/IsraelCOVID19.xlsx
+++ b/IsraelCOVID19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\GitHub\israel-covid19-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC87AB5-4F8F-4A71-8D9F-82BCC74E8DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EE5221-FBEC-4E6D-927D-B14116386BBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -914,8 +914,8 @@
   <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4099,11 +4099,11 @@
         <v>43965</v>
       </c>
       <c r="B85">
-        <f>B84+C85</f>
-        <v>16568</v>
+        <v>16571</v>
       </c>
       <c r="C85">
-        <v>5</v>
+        <f>B85-B84</f>
+        <v>8</v>
       </c>
       <c r="D85">
         <v>43</v>
@@ -4115,11 +4115,11 @@
         <v>264</v>
       </c>
       <c r="G85">
-        <v>12329</v>
+        <v>12364</v>
       </c>
       <c r="H85">
         <f t="shared" si="10"/>
-        <v>105</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/IsraelCOVID19.xlsx
+++ b/IsraelCOVID19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\GitHub\israel-covid19-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EE5221-FBEC-4E6D-927D-B14116386BBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DC4056-A033-41B5-81DF-6D41F9492D05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,11 +911,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
+      <selection pane="bottomLeft" activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3031,10 +3031,11 @@
         <v>43941</v>
       </c>
       <c r="B61">
-        <v>14187</v>
+        <v>14142</v>
       </c>
       <c r="C61">
-        <v>303</v>
+        <f>B61-B60</f>
+        <v>258</v>
       </c>
       <c r="D61">
         <v>129</v>
@@ -3059,11 +3060,11 @@
       </c>
       <c r="K61" s="2">
         <f t="shared" si="0"/>
-        <v>2.0014532003434837</v>
+        <v>1.704207675539996</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="1"/>
-        <v>0.77891037307160538</v>
+        <v>0.66323061469463429</v>
       </c>
       <c r="M61">
         <v>1</v>
@@ -3074,10 +3075,12 @@
         <v>43942</v>
       </c>
       <c r="B62">
-        <v>14480</v>
+        <f>B63-C63</f>
+        <v>14430</v>
       </c>
       <c r="C62">
-        <v>293</v>
+        <f>B62-B61</f>
+        <v>288</v>
       </c>
       <c r="D62">
         <v>135</v>
@@ -3102,11 +3105,11 @@
       </c>
       <c r="K62" s="2">
         <f t="shared" si="0"/>
-        <v>2.1721402624360588</v>
+        <v>2.1350730224627474</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="1"/>
-        <v>1.085281565446188</v>
+        <v>1.2528244374830828</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -3117,10 +3120,10 @@
         <v>43943</v>
       </c>
       <c r="B63">
-        <v>14710</v>
+        <v>14657</v>
       </c>
       <c r="C63">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D63">
         <v>124</v>
@@ -3145,11 +3148,11 @@
       </c>
       <c r="K63" s="2">
         <f t="shared" si="0"/>
-        <v>1.7049666419570051</v>
+        <v>1.6827279466271312</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="1"/>
-        <v>0.78492474516580357</v>
+        <v>0.78813601639074216</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -3160,10 +3163,12 @@
         <v>43944</v>
       </c>
       <c r="B64">
-        <v>14993</v>
+        <f>B65-C65</f>
+        <v>14935</v>
       </c>
       <c r="C64">
-        <v>283</v>
+        <f>B64-B63</f>
+        <v>278</v>
       </c>
       <c r="D64">
         <v>112</v>
@@ -3188,11 +3193,11 @@
       </c>
       <c r="K64" s="2">
         <f t="shared" si="0"/>
-        <v>1.9983053241067645</v>
+        <v>1.9629995763310266</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="1"/>
-        <v>1.1720495140087068</v>
+        <v>1.1665578980046498</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -3203,10 +3208,10 @@
         <v>43945</v>
       </c>
       <c r="B65">
-        <v>15235</v>
+        <v>15189</v>
       </c>
       <c r="C65">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D65">
         <v>101</v>
@@ -3231,11 +3236,11 @@
       </c>
       <c r="K65" s="2">
         <f t="shared" si="0"/>
-        <v>1.918655355585507</v>
+        <v>2.0137952905732179</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="1"/>
-        <v>0.96014124190112904</v>
+        <v>1.0258765793200688</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -3246,9 +3251,11 @@
         <v>43946</v>
       </c>
       <c r="B66">
-        <v>15395</v>
+        <f>B67-C67</f>
+        <v>15349</v>
       </c>
       <c r="C66">
+        <f>B66-B65</f>
         <v>160</v>
       </c>
       <c r="D66">
@@ -3278,7 +3285,7 @@
       </c>
       <c r="L66" s="2">
         <f t="shared" si="1"/>
-        <v>0.91841118433028723</v>
+        <v>0.87502167955877763</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -3289,10 +3296,10 @@
         <v>43947</v>
       </c>
       <c r="B67">
-        <v>15484</v>
+        <v>15437</v>
       </c>
       <c r="C67">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D67">
         <v>82</v>
@@ -3317,11 +3324,11 @@
       </c>
       <c r="K67" s="2">
         <f t="shared" si="0"/>
-        <v>1.0629502775481281</v>
+        <v>1.0393291602692807</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="1"/>
-        <v>0.60322428250856275</v>
+        <v>0.58981929845281678</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -3332,10 +3339,12 @@
         <v>43948</v>
       </c>
       <c r="B68">
-        <v>15600</v>
+        <f>B69-C69</f>
+        <v>15552</v>
       </c>
       <c r="C68">
-        <v>116</v>
+        <f>B68-B67</f>
+        <v>115</v>
       </c>
       <c r="D68">
         <v>88</v>
@@ -3360,11 +3369,11 @@
       </c>
       <c r="K68" s="2">
         <f t="shared" si="0"/>
-        <v>1.0527271077230238</v>
+        <v>1.0436518740357563</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="1"/>
-        <v>0.99038226901009352</v>
+        <v>1.0041591383478123</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -3375,7 +3384,7 @@
         <v>43949</v>
       </c>
       <c r="B69">
-        <v>15767</v>
+        <v>15719</v>
       </c>
       <c r="C69">
         <v>167</v>
@@ -3407,7 +3416,7 @@
       </c>
       <c r="L69" s="2">
         <f>K69/K68</f>
-        <v>1.4909361226341717</v>
+        <v>1.5039007845701211</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -3418,9 +3427,11 @@
         <v>43950</v>
       </c>
       <c r="B70">
-        <v>15851</v>
+        <f>B71-C71</f>
+        <v>15802</v>
       </c>
       <c r="C70">
+        <f>B70-B69</f>
         <v>83</v>
       </c>
       <c r="D70">
@@ -3461,10 +3472,10 @@
         <v>43951</v>
       </c>
       <c r="B71">
-        <v>15870</v>
+        <v>15946</v>
       </c>
       <c r="C71">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D71">
         <v>79</v>
@@ -3490,11 +3501,11 @@
       </c>
       <c r="K71" s="2">
         <f t="shared" si="2"/>
-        <v>1.5014107214832728</v>
+        <v>1.4510278113663846</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="3"/>
-        <v>1.6287592935223361</v>
+        <v>1.5741029413907142</v>
       </c>
       <c r="M71">
         <v>1</v>
@@ -3505,10 +3516,12 @@
         <v>43952</v>
       </c>
       <c r="B72">
-        <v>16004</v>
+        <f>B73-C73</f>
+        <v>16063</v>
       </c>
       <c r="C72">
-        <v>116</v>
+        <f>B72-B71</f>
+        <v>117</v>
       </c>
       <c r="D72">
         <v>82</v>
@@ -3534,11 +3547,11 @@
       </c>
       <c r="K72" s="2">
         <f t="shared" si="2"/>
-        <v>1.0497737556561086</v>
+        <v>1.0588235294117647</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="3"/>
-        <v>0.69919159403565256</v>
+        <v>0.7297058823529412</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -3549,7 +3562,7 @@
         <v>43953</v>
       </c>
       <c r="B73">
-        <v>16152</v>
+        <v>16120</v>
       </c>
       <c r="C73">
         <v>57</v>
@@ -3583,7 +3596,7 @@
       </c>
       <c r="L73" s="2">
         <f t="shared" si="3"/>
-        <v>0.97499396288567863</v>
+        <v>0.96666068115161308</v>
       </c>
       <c r="M73">
         <v>1</v>
@@ -3594,10 +3607,11 @@
         <v>43954</v>
       </c>
       <c r="B74">
-        <f>B75-C74</f>
-        <v>16189</v>
+        <f>B75-C75</f>
+        <v>16149</v>
       </c>
       <c r="C74">
+        <f>B74-B73</f>
         <v>29</v>
       </c>
       <c r="D74">
@@ -3620,7 +3634,7 @@
         <v>8028</v>
       </c>
       <c r="J74">
-        <f t="shared" ref="J74:J84" si="5">J73+I74</f>
+        <f t="shared" ref="J74:J88" si="5">J73+I74</f>
         <v>399519</v>
       </c>
       <c r="K74" s="2">
@@ -3640,10 +3654,10 @@
         <v>43955</v>
       </c>
       <c r="B75">
-        <v>16218</v>
+        <v>16205</v>
       </c>
       <c r="C75">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D75">
         <v>64</v>
@@ -3670,11 +3684,11 @@
       </c>
       <c r="K75" s="2">
         <f t="shared" si="2"/>
-        <v>0.59388834899038978</v>
+        <v>0.60468631897203329</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="3"/>
-        <v>1.644046781274086</v>
+        <v>1.6739385409336149</v>
       </c>
       <c r="M75">
         <v>1</v>
@@ -3686,11 +3700,11 @@
       </c>
       <c r="B76">
         <f>B77-C77</f>
-        <v>16258</v>
+        <v>16239</v>
       </c>
       <c r="C76">
         <f>B76-B75</f>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D76">
         <v>59</v>
@@ -3717,11 +3731,11 @@
       </c>
       <c r="K76" s="2">
         <f t="shared" si="2"/>
-        <v>0.44677761644141628</v>
+        <v>0.37976097397520386</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="3"/>
-        <v>0.75229227379344665</v>
+        <v>0.62802971071149338</v>
       </c>
       <c r="M76">
         <v>1</v>
@@ -3732,10 +3746,10 @@
         <v>43957</v>
       </c>
       <c r="B77">
-        <v>16324</v>
+        <v>16304</v>
       </c>
       <c r="C77">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D77">
         <v>60</v>
@@ -3762,11 +3776,11 @@
       </c>
       <c r="K77" s="2">
         <f t="shared" si="2"/>
-        <v>0.69796954314720816</v>
+        <v>0.68739424703891705</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="3"/>
-        <v>1.5622303299492386</v>
+        <v>1.8100707922763011</v>
       </c>
       <c r="M77">
         <v>1</v>
@@ -3778,7 +3792,7 @@
       </c>
       <c r="B78">
         <f>B79-C79</f>
-        <v>16387</v>
+        <v>16367</v>
       </c>
       <c r="C78">
         <f>B78-B77</f>
@@ -3813,7 +3827,7 @@
       </c>
       <c r="L78" s="2">
         <f t="shared" ref="L78" si="7">K78/K77</f>
-        <v>0.89226787447428013</v>
+        <v>0.90599507254311529</v>
       </c>
       <c r="M78">
         <v>1</v>
@@ -3824,10 +3838,10 @@
         <v>43959</v>
       </c>
       <c r="B79">
-        <v>16422</v>
+        <v>16401</v>
       </c>
       <c r="C79">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D79">
         <v>57</v>
@@ -3854,11 +3868,11 @@
       </c>
       <c r="K79" s="2">
         <f t="shared" ref="K79:K82" si="8">100*C79/I79</f>
-        <v>0.42844901456726647</v>
+        <v>0.41620761415105889</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" ref="L79:L82" si="9">K79/K78</f>
-        <v>0.68796670339086785</v>
+        <v>0.66831051186541457</v>
       </c>
       <c r="M79">
         <v>1</v>
@@ -3870,7 +3884,7 @@
       </c>
       <c r="B80">
         <f>B81-C81</f>
-        <v>16441</v>
+        <v>16420</v>
       </c>
       <c r="C80">
         <f>B80-B79</f>
@@ -3889,7 +3903,7 @@
         <v>11376</v>
       </c>
       <c r="H80">
-        <f t="shared" ref="H80:H85" si="10">G80-G79</f>
+        <f t="shared" ref="H80:H89" si="10">G80-G79</f>
         <v>233</v>
       </c>
       <c r="I80">
@@ -3905,7 +3919,7 @@
       </c>
       <c r="L80" s="2">
         <f t="shared" si="9"/>
-        <v>1.1417610710607622</v>
+        <v>1.1753422790331374</v>
       </c>
       <c r="M80">
         <v>1</v>
@@ -3916,7 +3930,7 @@
         <v>43961</v>
       </c>
       <c r="B81">
-        <v>16471</v>
+        <v>16450</v>
       </c>
       <c r="C81">
         <v>30</v>
@@ -3962,11 +3976,11 @@
       </c>
       <c r="B82">
         <f>B83-C83</f>
-        <v>16500</v>
+        <v>16498</v>
       </c>
       <c r="C82">
         <f>B82-B81</f>
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D82">
         <v>51</v>
@@ -3993,11 +4007,11 @@
       </c>
       <c r="K82" s="2">
         <f t="shared" si="8"/>
-        <v>0.31704383951022191</v>
+        <v>0.5247622171203673</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="9"/>
-        <v>0.52238256623300894</v>
+        <v>0.86463321307532515</v>
       </c>
       <c r="M82">
         <v>1</v>
@@ -4008,7 +4022,7 @@
         <v>43963</v>
       </c>
       <c r="B83">
-        <v>16526</v>
+        <v>16524</v>
       </c>
       <c r="C83">
         <v>26</v>
@@ -4030,19 +4044,19 @@
         <v>307</v>
       </c>
       <c r="I83">
-        <v>7528</v>
+        <v>7527</v>
       </c>
       <c r="J83">
         <f t="shared" si="5"/>
-        <v>470976</v>
+        <v>470975</v>
       </c>
       <c r="K83" s="2">
-        <f t="shared" ref="K83:K84" si="11">100*C83/I83</f>
-        <v>0.34537725823591925</v>
+        <f t="shared" ref="K83:K88" si="11">100*C83/I83</f>
+        <v>0.34542314335060448</v>
       </c>
       <c r="L83" s="2">
-        <f t="shared" ref="L83:L84" si="12">K83/K82</f>
-        <v>1.0893675107186047</v>
+        <f t="shared" ref="L83:L88" si="12">K83/K82</f>
+        <v>0.65824697754749573</v>
       </c>
       <c r="M83">
         <v>1</v>
@@ -4053,11 +4067,12 @@
         <v>43964</v>
       </c>
       <c r="B84">
-        <f>B83+C84</f>
-        <v>16563</v>
+        <f>B85-C85</f>
+        <v>16562</v>
       </c>
       <c r="C84">
-        <v>37</v>
+        <f>B84-B83</f>
+        <v>38</v>
       </c>
       <c r="D84">
         <v>50</v>
@@ -4076,19 +4091,19 @@
         <v>123</v>
       </c>
       <c r="I84">
-        <v>7130</v>
+        <v>8148</v>
       </c>
       <c r="J84">
         <f t="shared" si="5"/>
-        <v>478106</v>
+        <v>479123</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="11"/>
-        <v>0.5189340813464236</v>
+        <v>0.46637211585665195</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="12"/>
-        <v>1.5025137555291834</v>
+        <v>1.3501472754050075</v>
       </c>
       <c r="M84">
         <v>1</v>
@@ -4099,27 +4114,210 @@
         <v>43965</v>
       </c>
       <c r="B85">
-        <v>16571</v>
+        <v>16585</v>
       </c>
       <c r="C85">
-        <f>B85-B84</f>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D85">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E85">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F85">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G85">
-        <v>12364</v>
+        <v>12577</v>
       </c>
       <c r="H85">
         <f t="shared" si="10"/>
-        <v>140</v>
+        <v>353</v>
+      </c>
+      <c r="I85">
+        <v>8303</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="5"/>
+        <v>487426</v>
+      </c>
+      <c r="K85" s="2">
+        <f t="shared" si="11"/>
+        <v>0.2770083102493075</v>
+      </c>
+      <c r="L85" s="2">
+        <f t="shared" si="12"/>
+        <v>0.59396413471351517</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B86">
+        <f>B87-C87</f>
+        <v>16600</v>
+      </c>
+      <c r="C86">
+        <f>B86-B85</f>
+        <v>15</v>
+      </c>
+      <c r="D86">
+        <v>41</v>
+      </c>
+      <c r="E86">
+        <v>60</v>
+      </c>
+      <c r="F86">
+        <v>266</v>
+      </c>
+      <c r="G86">
+        <v>12674</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="10"/>
+        <v>97</v>
+      </c>
+      <c r="I86">
+        <v>5678</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="5"/>
+        <v>493104</v>
+      </c>
+      <c r="K86" s="2">
+        <f t="shared" si="11"/>
+        <v>0.26417752729834448</v>
+      </c>
+      <c r="L86" s="2">
+        <f t="shared" si="12"/>
+        <v>0.95368087354702347</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B87">
+        <v>16605</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>41</v>
+      </c>
+      <c r="E87">
+        <v>59</v>
+      </c>
+      <c r="F87">
+        <v>269</v>
+      </c>
+      <c r="G87">
+        <v>12852</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="10"/>
+        <v>178</v>
+      </c>
+      <c r="I87">
+        <v>1521</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="5"/>
+        <v>494625</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" si="11"/>
+        <v>0.32873109796186717</v>
+      </c>
+      <c r="L87" s="2">
+        <f t="shared" si="12"/>
+        <v>1.2443567828183213</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B88">
+        <f>B89-C89</f>
+        <v>16621</v>
+      </c>
+      <c r="C88">
+        <f>B88-B87</f>
+        <v>16</v>
+      </c>
+      <c r="D88">
+        <v>37</v>
+      </c>
+      <c r="E88">
+        <v>55</v>
+      </c>
+      <c r="F88">
+        <v>272</v>
+      </c>
+      <c r="G88">
+        <v>12947</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="10"/>
+        <v>95</v>
+      </c>
+      <c r="I88">
+        <v>4344</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="5"/>
+        <v>498969</v>
+      </c>
+      <c r="K88" s="2">
+        <f t="shared" si="11"/>
+        <v>0.36832412523020258</v>
+      </c>
+      <c r="L88" s="2">
+        <f t="shared" si="12"/>
+        <v>1.1204419889502764</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B89">
+        <v>16621</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>39</v>
+      </c>
+      <c r="E89">
+        <v>57</v>
+      </c>
+      <c r="F89">
+        <v>272</v>
+      </c>
+      <c r="G89">
+        <v>13014</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="10"/>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/IsraelCOVID19.xlsx
+++ b/IsraelCOVID19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\GitHub\israel-covid19-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DC4056-A033-41B5-81DF-6D41F9492D05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B610621-EC2E-4D58-9774-9C60B0BA5D3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,11 +911,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H87" sqref="H87"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3516,12 +3516,11 @@
         <v>43952</v>
       </c>
       <c r="B72">
-        <f>B73-C73</f>
-        <v>16063</v>
+        <v>16041</v>
       </c>
       <c r="C72">
         <f>B72-B71</f>
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D72">
         <v>82</v>
@@ -3547,11 +3546,11 @@
       </c>
       <c r="K72" s="2">
         <f t="shared" si="2"/>
-        <v>1.0588235294117647</v>
+        <v>0.85972850678733037</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="3"/>
-        <v>0.7297058823529412</v>
+        <v>0.59249622926093515</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -3562,10 +3561,11 @@
         <v>43953</v>
       </c>
       <c r="B73">
-        <v>16120</v>
+        <v>16095</v>
       </c>
       <c r="C73">
-        <v>57</v>
+        <f>B73-B72</f>
+        <v>54</v>
       </c>
       <c r="D73">
         <v>67</v>
@@ -3592,11 +3592,11 @@
       </c>
       <c r="K73" s="2">
         <f t="shared" si="2"/>
-        <v>1.0235230741605315</v>
+        <v>0.96965343867839826</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="3"/>
-        <v>0.96666068115161308</v>
+        <v>1.1278600523575053</v>
       </c>
       <c r="M73">
         <v>1</v>
@@ -3607,12 +3607,11 @@
         <v>43954</v>
       </c>
       <c r="B74">
-        <f>B75-C75</f>
-        <v>16149</v>
+        <v>16115</v>
       </c>
       <c r="C74">
-        <f>B74-B73</f>
-        <v>29</v>
+        <f t="shared" ref="C74:C104" si="5">B74-B73</f>
+        <v>20</v>
       </c>
       <c r="D74">
         <v>65</v>
@@ -3634,16 +3633,16 @@
         <v>8028</v>
       </c>
       <c r="J74">
-        <f t="shared" ref="J74:J88" si="5">J73+I74</f>
+        <f t="shared" ref="J74:J104" si="6">J73+I74</f>
         <v>399519</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="2"/>
-        <v>0.36123567513702043</v>
+        <v>0.24912805181863479</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="3"/>
-        <v>0.35293359207685382</v>
+        <v>0.25692483714406983</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -3654,10 +3653,12 @@
         <v>43955</v>
       </c>
       <c r="B75">
-        <v>16205</v>
+        <f>B76-C76</f>
+        <v>16174</v>
       </c>
       <c r="C75">
-        <v>56</v>
+        <f>B75-B74</f>
+        <v>59</v>
       </c>
       <c r="D75">
         <v>64</v>
@@ -3679,16 +3680,16 @@
         <v>9261</v>
       </c>
       <c r="J75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>408780</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="2"/>
-        <v>0.60468631897203329</v>
+        <v>0.63708022891696359</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="3"/>
-        <v>1.6739385409336149</v>
+        <v>2.5572400388726919</v>
       </c>
       <c r="M75">
         <v>1</v>
@@ -3699,12 +3700,10 @@
         <v>43956</v>
       </c>
       <c r="B76">
-        <f>B77-C77</f>
-        <v>16239</v>
+        <v>16207</v>
       </c>
       <c r="C76">
-        <f>B76-B75</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D76">
         <v>59</v>
@@ -3726,16 +3725,16 @@
         <v>8953</v>
       </c>
       <c r="J76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>417733</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="2"/>
-        <v>0.37976097397520386</v>
+        <v>0.36859153356416846</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="3"/>
-        <v>0.62802971071149338</v>
+        <v>0.57856376141318033</v>
       </c>
       <c r="M76">
         <v>1</v>
@@ -3746,9 +3745,11 @@
         <v>43957</v>
       </c>
       <c r="B77">
-        <v>16304</v>
+        <f>B78-C78</f>
+        <v>16272</v>
       </c>
       <c r="C77">
+        <f>B77-B76</f>
         <v>65</v>
       </c>
       <c r="D77">
@@ -3771,7 +3772,7 @@
         <v>9456</v>
       </c>
       <c r="J77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>427189</v>
       </c>
       <c r="K77" s="2">
@@ -3780,7 +3781,7 @@
       </c>
       <c r="L77" s="2">
         <f t="shared" si="3"/>
-        <v>1.8100707922763011</v>
+        <v>1.8649214223452799</v>
       </c>
       <c r="M77">
         <v>1</v>
@@ -3791,12 +3792,10 @@
         <v>43958</v>
       </c>
       <c r="B78">
-        <f>B79-C79</f>
-        <v>16367</v>
+        <v>16333</v>
       </c>
       <c r="C78">
-        <f>B78-B77</f>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D78">
         <v>62</v>
@@ -3818,16 +3817,16 @@
         <v>10116</v>
       </c>
       <c r="J78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>437305</v>
       </c>
       <c r="K78" s="2">
-        <f t="shared" ref="K78" si="6">100*C78/I78</f>
-        <v>0.62277580071174377</v>
+        <f t="shared" ref="K78" si="7">100*C78/I78</f>
+        <v>0.6030051403716884</v>
       </c>
       <c r="L78" s="2">
-        <f t="shared" ref="L78" si="7">K78/K77</f>
-        <v>0.90599507254311529</v>
+        <f t="shared" ref="L78" si="8">K78/K77</f>
+        <v>0.87723332420841316</v>
       </c>
       <c r="M78">
         <v>1</v>
@@ -3838,10 +3837,12 @@
         <v>43959</v>
       </c>
       <c r="B79">
-        <v>16401</v>
+        <f>B80-C80</f>
+        <v>16366</v>
       </c>
       <c r="C79">
-        <v>34</v>
+        <f>B79-B78</f>
+        <v>33</v>
       </c>
       <c r="D79">
         <v>57</v>
@@ -3863,16 +3864,16 @@
         <v>8169</v>
       </c>
       <c r="J79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>445474</v>
       </c>
       <c r="K79" s="2">
-        <f t="shared" ref="K79:K82" si="8">100*C79/I79</f>
-        <v>0.41620761415105889</v>
+        <f t="shared" ref="K79:K82" si="9">100*C79/I79</f>
+        <v>0.40396621373485125</v>
       </c>
       <c r="L79" s="2">
-        <f t="shared" ref="L79:L82" si="9">K79/K78</f>
-        <v>0.66831051186541457</v>
+        <f t="shared" ref="L79:L82" si="10">K79/K78</f>
+        <v>0.66992167510520584</v>
       </c>
       <c r="M79">
         <v>1</v>
@@ -3883,12 +3884,10 @@
         <v>43960</v>
       </c>
       <c r="B80">
-        <f>B81-C81</f>
-        <v>16420</v>
+        <v>16384</v>
       </c>
       <c r="C80">
-        <f>B80-B79</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80">
         <v>50</v>
@@ -3903,23 +3902,23 @@
         <v>11376</v>
       </c>
       <c r="H80">
-        <f t="shared" ref="H80:H89" si="10">G80-G79</f>
+        <f t="shared" ref="H80:H104" si="11">G80-G79</f>
         <v>233</v>
       </c>
       <c r="I80">
         <v>3884</v>
       </c>
       <c r="J80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>449358</v>
       </c>
       <c r="K80" s="2">
-        <f t="shared" si="8"/>
-        <v>0.48918640576725025</v>
+        <f t="shared" si="9"/>
+        <v>0.46343975283213185</v>
       </c>
       <c r="L80" s="2">
-        <f t="shared" si="9"/>
-        <v>1.1753422790331374</v>
+        <f t="shared" si="10"/>
+        <v>1.1472240426926319</v>
       </c>
       <c r="M80">
         <v>1</v>
@@ -3930,10 +3929,12 @@
         <v>43961</v>
       </c>
       <c r="B81">
-        <v>16450</v>
+        <f>B82-C82</f>
+        <v>16413</v>
       </c>
       <c r="C81">
-        <v>30</v>
+        <f>B81-B80</f>
+        <v>29</v>
       </c>
       <c r="D81">
         <v>47</v>
@@ -3948,23 +3949,23 @@
         <v>11430</v>
       </c>
       <c r="H81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>54</v>
       </c>
       <c r="I81">
         <v>4943</v>
       </c>
       <c r="J81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>454301</v>
       </c>
       <c r="K81" s="2">
-        <f t="shared" si="8"/>
-        <v>0.60691887517701804</v>
+        <f t="shared" si="9"/>
+        <v>0.58668824600445069</v>
       </c>
       <c r="L81" s="2">
-        <f t="shared" si="9"/>
-        <v>1.240669953256599</v>
+        <f t="shared" si="10"/>
+        <v>1.2659428597118259</v>
       </c>
       <c r="M81">
         <v>1</v>
@@ -3975,12 +3976,10 @@
         <v>43962</v>
       </c>
       <c r="B82">
-        <f>B83-C83</f>
-        <v>16498</v>
+        <v>16455</v>
       </c>
       <c r="C82">
-        <f>B82-B81</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D82">
         <v>51</v>
@@ -3995,23 +3994,23 @@
         <v>11794</v>
       </c>
       <c r="H82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>364</v>
       </c>
       <c r="I82">
         <v>9147</v>
       </c>
       <c r="J82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>463448</v>
       </c>
       <c r="K82" s="2">
-        <f t="shared" si="8"/>
-        <v>0.5247622171203673</v>
+        <f t="shared" si="9"/>
+        <v>0.45916693998032143</v>
       </c>
       <c r="L82" s="2">
-        <f t="shared" si="9"/>
-        <v>0.86463321307532515</v>
+        <f t="shared" si="10"/>
+        <v>0.78264213252507897</v>
       </c>
       <c r="M82">
         <v>1</v>
@@ -4022,10 +4021,12 @@
         <v>43963</v>
       </c>
       <c r="B83">
-        <v>16524</v>
+        <f>B84-C84</f>
+        <v>16478</v>
       </c>
       <c r="C83">
-        <v>26</v>
+        <f>B83-B82</f>
+        <v>23</v>
       </c>
       <c r="D83">
         <v>53</v>
@@ -4040,23 +4041,23 @@
         <v>12101</v>
       </c>
       <c r="H83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>307</v>
       </c>
       <c r="I83">
         <v>7527</v>
       </c>
       <c r="J83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>470975</v>
       </c>
       <c r="K83" s="2">
-        <f t="shared" ref="K83:K88" si="11">100*C83/I83</f>
-        <v>0.34542314335060448</v>
+        <f t="shared" ref="K83:K88" si="12">100*C83/I83</f>
+        <v>0.30556662681015012</v>
       </c>
       <c r="L83" s="2">
-        <f t="shared" ref="L83:L88" si="12">K83/K82</f>
-        <v>0.65824697754749573</v>
+        <f t="shared" ref="L83:L88" si="13">K83/K82</f>
+        <v>0.66548046081724832</v>
       </c>
       <c r="M83">
         <v>1</v>
@@ -4067,12 +4068,10 @@
         <v>43964</v>
       </c>
       <c r="B84">
-        <f>B85-C85</f>
-        <v>16562</v>
+        <v>16515</v>
       </c>
       <c r="C84">
-        <f>B84-B83</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D84">
         <v>50</v>
@@ -4087,23 +4086,23 @@
         <v>12224</v>
       </c>
       <c r="H84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>123</v>
       </c>
       <c r="I84">
         <v>8148</v>
       </c>
       <c r="J84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>479123</v>
       </c>
       <c r="K84" s="2">
-        <f t="shared" si="11"/>
-        <v>0.46637211585665195</v>
+        <f t="shared" si="12"/>
+        <v>0.45409916543937162</v>
       </c>
       <c r="L84" s="2">
-        <f t="shared" si="12"/>
-        <v>1.3501472754050075</v>
+        <f t="shared" si="13"/>
+        <v>1.4860888775052827</v>
       </c>
       <c r="M84">
         <v>1</v>
@@ -4114,9 +4113,11 @@
         <v>43965</v>
       </c>
       <c r="B85">
-        <v>16585</v>
+        <f>B86-C86</f>
+        <v>16538</v>
       </c>
       <c r="C85">
+        <f>B85-B84</f>
         <v>23</v>
       </c>
       <c r="D85">
@@ -4132,23 +4133,23 @@
         <v>12577</v>
       </c>
       <c r="H85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>353</v>
       </c>
       <c r="I85">
         <v>8303</v>
       </c>
       <c r="J85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>487426</v>
       </c>
       <c r="K85" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.2770083102493075</v>
       </c>
       <c r="L85" s="2">
-        <f t="shared" si="12"/>
-        <v>0.59396413471351517</v>
+        <f t="shared" si="13"/>
+        <v>0.61001721943550202</v>
       </c>
       <c r="M85">
         <v>1</v>
@@ -4159,12 +4160,10 @@
         <v>43966</v>
       </c>
       <c r="B86">
-        <f>B87-C87</f>
-        <v>16600</v>
+        <v>16551</v>
       </c>
       <c r="C86">
-        <f>B86-B85</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D86">
         <v>41</v>
@@ -4179,23 +4178,23 @@
         <v>12674</v>
       </c>
       <c r="H86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>97</v>
       </c>
       <c r="I86">
         <v>5678</v>
       </c>
       <c r="J86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>493104</v>
       </c>
       <c r="K86" s="2">
-        <f t="shared" si="11"/>
-        <v>0.26417752729834448</v>
+        <f t="shared" si="12"/>
+        <v>0.22895385699189855</v>
       </c>
       <c r="L86" s="2">
-        <f t="shared" si="12"/>
-        <v>0.95368087354702347</v>
+        <f t="shared" si="13"/>
+        <v>0.82652342374075372</v>
       </c>
       <c r="M86">
         <v>1</v>
@@ -4206,9 +4205,11 @@
         <v>43967</v>
       </c>
       <c r="B87">
-        <v>16605</v>
+        <f>B88-C88</f>
+        <v>16556</v>
       </c>
       <c r="C87">
+        <f>B87-B86</f>
         <v>5</v>
       </c>
       <c r="D87">
@@ -4224,23 +4225,23 @@
         <v>12852</v>
       </c>
       <c r="H87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>178</v>
       </c>
       <c r="I87">
         <v>1521</v>
       </c>
       <c r="J87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>494625</v>
       </c>
       <c r="K87" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.32873109796186717</v>
       </c>
       <c r="L87" s="2">
-        <f t="shared" si="12"/>
-        <v>1.2443567828183213</v>
+        <f t="shared" si="13"/>
+        <v>1.4357962878672936</v>
       </c>
       <c r="M87">
         <v>1</v>
@@ -4251,12 +4252,10 @@
         <v>43968</v>
       </c>
       <c r="B88">
-        <f>B89-C89</f>
-        <v>16621</v>
+        <v>16571</v>
       </c>
       <c r="C88">
-        <f>B88-B87</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D88">
         <v>37</v>
@@ -4265,29 +4264,29 @@
         <v>55</v>
       </c>
       <c r="F88">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G88">
-        <v>12947</v>
+        <v>12942</v>
       </c>
       <c r="H88">
-        <f t="shared" si="10"/>
-        <v>95</v>
+        <f t="shared" si="11"/>
+        <v>90</v>
       </c>
       <c r="I88">
         <v>4344</v>
       </c>
       <c r="J88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>498969</v>
       </c>
       <c r="K88" s="2">
-        <f t="shared" si="11"/>
-        <v>0.36832412523020258</v>
+        <f t="shared" si="12"/>
+        <v>0.34530386740331492</v>
       </c>
       <c r="L88" s="2">
-        <f t="shared" si="12"/>
-        <v>1.1204419889502764</v>
+        <f t="shared" si="13"/>
+        <v>1.0504143646408841</v>
       </c>
       <c r="M88">
         <v>1</v>
@@ -4298,10 +4297,12 @@
         <v>43969</v>
       </c>
       <c r="B89">
-        <v>16621</v>
+        <f>B90-C90</f>
+        <v>16599</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <f>B89-B88</f>
+        <v>28</v>
       </c>
       <c r="D89">
         <v>39</v>
@@ -4310,14 +4311,669 @@
         <v>57</v>
       </c>
       <c r="F89">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G89">
-        <v>13014</v>
+        <v>13253</v>
       </c>
       <c r="H89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>311</v>
+      </c>
+      <c r="I89">
+        <v>7675</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="6"/>
+        <v>506644</v>
+      </c>
+      <c r="K89" s="2">
+        <f t="shared" ref="K89:K104" si="14">100*C89/I89</f>
+        <v>0.36482084690553745</v>
+      </c>
+      <c r="L89" s="2">
+        <f t="shared" ref="L89:L104" si="15">K89/K88</f>
+        <v>1.0565211726384365</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B90">
+        <v>16621</v>
+      </c>
+      <c r="C90">
+        <v>22</v>
+      </c>
+      <c r="E90">
+        <v>55</v>
+      </c>
+      <c r="F90">
+        <v>278</v>
+      </c>
+      <c r="G90">
+        <v>13435</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="11"/>
+        <v>182</v>
+      </c>
+      <c r="I90">
+        <v>7117</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="6"/>
+        <v>513761</v>
+      </c>
+      <c r="K90" s="2">
+        <f t="shared" si="14"/>
+        <v>0.30911901081916537</v>
+      </c>
+      <c r="L90" s="2">
+        <f t="shared" si="15"/>
+        <v>0.84731728858467648</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B91">
+        <f>B92-C92</f>
+        <v>16637</v>
+      </c>
+      <c r="C91">
+        <f>B91-B90</f>
+        <v>16</v>
+      </c>
+      <c r="E91">
+        <v>52</v>
+      </c>
+      <c r="F91">
+        <v>279</v>
+      </c>
+      <c r="G91">
+        <v>13574</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="11"/>
+        <v>139</v>
+      </c>
+      <c r="I91">
+        <v>5968</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="6"/>
+        <v>519729</v>
+      </c>
+      <c r="K91" s="2">
+        <f t="shared" si="14"/>
+        <v>0.26809651474530832</v>
+      </c>
+      <c r="L91" s="2">
+        <f t="shared" si="15"/>
+        <v>0.86729222520107241</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B92">
+        <v>16654</v>
+      </c>
+      <c r="C92">
+        <v>17</v>
+      </c>
+      <c r="E92">
+        <v>51</v>
+      </c>
+      <c r="F92">
+        <v>279</v>
+      </c>
+      <c r="G92">
+        <v>13724</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+      <c r="I92">
+        <v>6023</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="6"/>
+        <v>525752</v>
+      </c>
+      <c r="K92" s="2">
+        <f t="shared" si="14"/>
+        <v>0.28225136974929438</v>
+      </c>
+      <c r="L92" s="2">
+        <f t="shared" si="15"/>
+        <v>1.0527976091648681</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B93">
+        <f>B94-C94</f>
+        <v>16674</v>
+      </c>
+      <c r="C93">
+        <f>B93-B92</f>
+        <v>20</v>
+      </c>
+      <c r="E93">
+        <v>46</v>
+      </c>
+      <c r="F93">
+        <v>279</v>
+      </c>
+      <c r="G93">
+        <v>14075</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="11"/>
+        <v>351</v>
+      </c>
+      <c r="I93">
+        <v>4999</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="6"/>
+        <v>530751</v>
+      </c>
+      <c r="K93" s="2">
+        <f t="shared" si="14"/>
+        <v>0.40008001600320064</v>
+      </c>
+      <c r="L93" s="2">
+        <f t="shared" si="15"/>
+        <v>1.4174599625807514</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B94">
+        <v>16679</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="E94">
+        <v>47</v>
+      </c>
+      <c r="F94">
+        <v>279</v>
+      </c>
+      <c r="G94">
+        <v>14090</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="I94">
+        <v>704</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="6"/>
+        <v>531455</v>
+      </c>
+      <c r="K94" s="2">
+        <f t="shared" si="14"/>
+        <v>0.71022727272727271</v>
+      </c>
+      <c r="L94" s="2">
+        <f t="shared" si="15"/>
+        <v>1.7752130681818181</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B95">
+        <f>B96-C96</f>
+        <v>16693</v>
+      </c>
+      <c r="C95">
+        <f>B95-B94</f>
+        <v>14</v>
+      </c>
+      <c r="E95">
+        <v>47</v>
+      </c>
+      <c r="F95">
+        <v>280</v>
+      </c>
+      <c r="G95">
+        <v>14153</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="11"/>
+        <v>63</v>
+      </c>
+      <c r="I95">
+        <v>3806</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="6"/>
+        <v>535261</v>
+      </c>
+      <c r="K95" s="2">
+        <f t="shared" si="14"/>
+        <v>0.36784025223331579</v>
+      </c>
+      <c r="L95" s="2">
+        <f t="shared" si="15"/>
+        <v>0.51791907514450863</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B96">
+        <v>16716</v>
+      </c>
+      <c r="C96">
+        <v>23</v>
+      </c>
+      <c r="E96">
+        <v>47</v>
+      </c>
+      <c r="F96">
+        <v>281</v>
+      </c>
+      <c r="G96">
+        <v>14307</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="11"/>
+        <v>154</v>
+      </c>
+      <c r="I96">
+        <v>5244</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="6"/>
+        <v>540505</v>
+      </c>
+      <c r="K96" s="2">
+        <f t="shared" si="14"/>
+        <v>0.43859649122807015</v>
+      </c>
+      <c r="L96" s="2">
+        <f t="shared" si="15"/>
+        <v>1.1923558897243107</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B97">
+        <f>B98-C98</f>
+        <v>16771</v>
+      </c>
+      <c r="C97">
+        <f>B97-B96</f>
+        <v>55</v>
+      </c>
+      <c r="E97">
+        <v>43</v>
+      </c>
+      <c r="F97">
+        <v>281</v>
+      </c>
+      <c r="G97">
+        <v>14457</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+      <c r="I97">
+        <v>6791</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="6"/>
+        <v>547296</v>
+      </c>
+      <c r="K97" s="2">
+        <f t="shared" si="14"/>
+        <v>0.80989544986010897</v>
+      </c>
+      <c r="L97" s="2">
+        <f t="shared" si="15"/>
+        <v>1.8465616256810486</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B98">
+        <v>16810</v>
+      </c>
+      <c r="C98">
+        <v>39</v>
+      </c>
+      <c r="E98">
+        <v>41</v>
+      </c>
+      <c r="F98">
+        <v>283</v>
+      </c>
+      <c r="G98">
+        <v>14570</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="11"/>
+        <v>113</v>
+      </c>
+      <c r="I98">
+        <v>6633</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="6"/>
+        <v>553929</v>
+      </c>
+      <c r="K98" s="2">
+        <f t="shared" si="14"/>
+        <v>0.58796924468566258</v>
+      </c>
+      <c r="L98" s="2">
+        <f t="shared" si="15"/>
+        <v>0.72598166193824265</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B99">
+        <f>B100-C100</f>
+        <v>16887</v>
+      </c>
+      <c r="C99">
+        <f>B99-B98</f>
+        <v>77</v>
+      </c>
+      <c r="E99">
+        <v>36</v>
+      </c>
+      <c r="F99">
+        <v>284</v>
+      </c>
+      <c r="G99">
+        <v>14679</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="11"/>
+        <v>109</v>
+      </c>
+      <c r="I99">
+        <v>5325</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="6"/>
+        <v>559254</v>
+      </c>
+      <c r="K99" s="2">
+        <f t="shared" si="14"/>
+        <v>1.4460093896713615</v>
+      </c>
+      <c r="L99" s="2">
+        <f t="shared" si="15"/>
+        <v>2.4593282773564464</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B100">
+        <v>17000</v>
+      </c>
+      <c r="C100">
+        <v>113</v>
+      </c>
+      <c r="E100">
+        <v>39</v>
+      </c>
+      <c r="F100">
+        <v>284</v>
+      </c>
+      <c r="G100">
+        <v>14776</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="11"/>
+        <v>97</v>
+      </c>
+      <c r="I100">
+        <v>1825</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="6"/>
+        <v>561079</v>
+      </c>
+      <c r="K100" s="2">
+        <f t="shared" si="14"/>
+        <v>6.1917808219178081</v>
+      </c>
+      <c r="L100" s="2">
+        <f t="shared" si="15"/>
+        <v>4.2819782956769261</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B101">
+        <f>B102-C102</f>
+        <v>17028</v>
+      </c>
+      <c r="C101">
+        <f>B101-B100</f>
+        <v>28</v>
+      </c>
+      <c r="F101">
+        <v>284</v>
+      </c>
+      <c r="G101">
+        <v>14792</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="I101">
+        <v>1014</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="6"/>
+        <v>562093</v>
+      </c>
+      <c r="K101" s="2">
+        <f t="shared" si="14"/>
+        <v>2.7613412228796843</v>
+      </c>
+      <c r="L101" s="2">
+        <f t="shared" si="15"/>
+        <v>0.44596882581906405</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B102">
+        <v>17115</v>
+      </c>
+      <c r="C102">
+        <v>87</v>
+      </c>
+      <c r="F102">
+        <v>285</v>
+      </c>
+      <c r="G102">
+        <v>14811</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="I102">
+        <v>5423</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="6"/>
+        <v>567516</v>
+      </c>
+      <c r="K102" s="2">
+        <f t="shared" si="14"/>
+        <v>1.6042780748663101</v>
+      </c>
+      <c r="L102" s="2">
+        <f t="shared" si="15"/>
+        <v>0.58097784568372801</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B103">
+        <f>B104-C104</f>
+        <v>17213</v>
+      </c>
+      <c r="C103">
+        <f>B103-B102</f>
+        <v>98</v>
+      </c>
+      <c r="F103">
+        <v>288</v>
+      </c>
+      <c r="G103">
+        <v>14878</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="11"/>
         <v>67</v>
+      </c>
+      <c r="I103">
+        <v>5636</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="6"/>
+        <v>573152</v>
+      </c>
+      <c r="K103" s="2">
+        <f t="shared" si="14"/>
+        <v>1.7388218594748048</v>
+      </c>
+      <c r="L103" s="2">
+        <f t="shared" si="15"/>
+        <v>1.0838656257392951</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B104">
+        <v>17285</v>
+      </c>
+      <c r="C104">
+        <v>72</v>
+      </c>
+      <c r="F104">
+        <v>290</v>
+      </c>
+      <c r="G104">
+        <v>14940</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="I104">
+        <v>6664</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="6"/>
+        <v>579816</v>
+      </c>
+      <c r="K104" s="2">
+        <f t="shared" si="14"/>
+        <v>1.0804321728691477</v>
+      </c>
+      <c r="L104" s="2">
+        <f t="shared" si="15"/>
+        <v>0.62135874758066501</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>43985</v>
       </c>
     </row>
   </sheetData>
